--- a/server/app/uploads/addUser/发动机考试题.xlsx
+++ b/server/app/uploads/addUser/发动机考试题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>desc</t>
   </si>
@@ -361,6 +361,14 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -776,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -795,10 +803,11 @@
     <col min="12" max="12" width="30.25" style="4" customWidth="1"/>
     <col min="13" max="15" width="9" style="4"/>
     <col min="16" max="19" width="9.375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="4"/>
+    <col min="20" max="20" width="9" style="2"/>
+    <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -856,8 +865,11 @@
       <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="18" thickBot="1">
+    <row r="2" spans="1:20" ht="18" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -907,8 +919,11 @@
       <c r="S2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="18" thickBot="1">
+    <row r="3" spans="1:20" ht="18" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -957,6 +972,9 @@
       </c>
       <c r="S3" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
